--- a/Exoplanets/WASP74b/ExoCTK_results.xlsx
+++ b/Exoplanets/WASP74b/ExoCTK_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\Exoplanets\WASP74b\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC52C4D-7156-4CBA-BACA-3F65D591F14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5FDD4F-39D5-4862-B4AB-07511AE78443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{FD485E45-5400-4809-8075-6517CC8BF8A4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="26">
   <si>
     <t>Teff</t>
   </si>
@@ -96,7 +96,13 @@
     <t>HST/WFC3_IR.G141</t>
   </si>
   <si>
-    <t>----------------</t>
+    <t>----------</t>
+  </si>
+  <si>
+    <t>STIS.G430L</t>
+  </si>
+  <si>
+    <t>STIS.G750L</t>
   </si>
 </sst>
 </file>
@@ -456,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7459B0-01F0-423D-9E42-EFF86DA61453}">
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,13 +546,13 @@
         <v>19</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>20</v>
@@ -558,7 +564,7 @@
         <v>20</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>20</v>
@@ -578,40 +584,40 @@
         <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2">
-        <v>1.04</v>
+        <v>0.47</v>
       </c>
       <c r="G3" s="2">
-        <v>1.0680000000000001</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="H3" s="2">
-        <v>1.0980000000000001</v>
+        <v>0.504</v>
       </c>
       <c r="I3" s="2">
-        <v>0.17899999999999999</v>
+        <v>-0.12</v>
       </c>
       <c r="J3" s="2">
-        <v>1.2999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="K3" s="2">
-        <v>0.89</v>
+        <v>1.621</v>
       </c>
       <c r="L3" s="2">
-        <v>0.03</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="M3" s="2">
-        <v>-0.78700000000000003</v>
+        <v>-0.96899999999999997</v>
       </c>
       <c r="N3" s="2">
-        <v>0.03</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="O3" s="2">
-        <v>0.23300000000000001</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="P3" s="2">
-        <v>1.0999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -628,37 +634,37 @@
         <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2">
-        <v>1.0980000000000001</v>
+        <v>0.505</v>
       </c>
       <c r="G4" s="2">
-        <v>1.127</v>
+        <v>0.52149999999999996</v>
       </c>
       <c r="H4" s="2">
-        <v>1.157</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="I4" s="2">
-        <v>0.157</v>
+        <v>-5.6000000000000001E-2</v>
       </c>
       <c r="J4" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="K4" s="2">
-        <v>0.96399999999999997</v>
+        <v>1.44</v>
       </c>
       <c r="L4" s="2">
-        <v>0.03</v>
+        <v>3.1E-2</v>
       </c>
       <c r="M4" s="2">
-        <v>-0.88600000000000001</v>
+        <v>-0.84899999999999998</v>
       </c>
       <c r="N4" s="2">
-        <v>0.03</v>
+        <v>3.1E-2</v>
       </c>
       <c r="O4" s="2">
-        <v>0.27700000000000002</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="P4" s="2">
         <v>1.0999999999999999E-2</v>
@@ -678,37 +684,37 @@
         <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2">
-        <v>1.1579999999999999</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="G5" s="2">
-        <v>1.1890000000000001</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="H5" s="2">
-        <v>1.2210000000000001</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="I5" s="2">
-        <v>0.17399999999999999</v>
+        <v>-6.5000000000000002E-2</v>
       </c>
       <c r="J5" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K5" s="2">
-        <v>0.96699999999999997</v>
+        <v>1.544</v>
       </c>
       <c r="L5" s="2">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="M5" s="2">
-        <v>-0.93799999999999994</v>
+        <v>-1.032</v>
       </c>
       <c r="N5" s="2">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="O5" s="2">
-        <v>0.30499999999999999</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="P5" s="2">
         <v>1.2999999999999999E-2</v>
@@ -728,40 +734,40 @@
         <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2">
-        <v>1.222</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="G6" s="2">
-        <v>1.254</v>
+        <v>0.5635</v>
       </c>
       <c r="H6" s="2">
-        <v>1.288</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="I6" s="2">
-        <v>0.221</v>
+        <v>-6.0999999999999999E-2</v>
       </c>
       <c r="J6" s="2">
         <v>1.2E-2</v>
       </c>
       <c r="K6" s="2">
-        <v>0.93200000000000005</v>
+        <v>1.544</v>
       </c>
       <c r="L6" s="2">
-        <v>2.8000000000000001E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="M6" s="2">
-        <v>-0.96499999999999997</v>
+        <v>-1.046</v>
       </c>
       <c r="N6" s="2">
-        <v>2.8000000000000001E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="O6" s="2">
-        <v>0.32300000000000001</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="P6" s="2">
-        <v>0.01</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -778,40 +784,40 @@
         <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2">
-        <v>1.288</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="G7" s="2">
-        <v>1.323</v>
+        <v>0.58840000000000003</v>
       </c>
       <c r="H7" s="2">
-        <v>1.3580000000000001</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="I7" s="2">
-        <v>0.313</v>
+        <v>-0.08</v>
       </c>
       <c r="J7" s="2">
-        <v>1.9E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="K7" s="2">
-        <v>0.76</v>
+        <v>1.623</v>
       </c>
       <c r="L7" s="2">
-        <v>4.4999999999999998E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="M7" s="2">
-        <v>-0.84599999999999997</v>
+        <v>-1.165</v>
       </c>
       <c r="N7" s="2">
-        <v>4.4999999999999998E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="O7" s="2">
-        <v>0.29199999999999998</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="P7" s="2">
-        <v>1.6E-2</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -828,40 +834,40 @@
         <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2">
-        <v>1.3580000000000001</v>
+        <v>0.60160000000000002</v>
       </c>
       <c r="G8" s="2">
-        <v>1.3955</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="H8" s="2">
-        <v>1.4339999999999999</v>
+        <v>0.626</v>
       </c>
       <c r="I8" s="2">
-        <v>0.441</v>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="J8" s="2">
-        <v>1.7000000000000001E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="K8" s="2">
-        <v>0.54</v>
+        <v>1.512</v>
       </c>
       <c r="L8" s="2">
-        <v>4.1000000000000002E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="M8" s="2">
-        <v>-0.71599999999999997</v>
+        <v>-1.0860000000000001</v>
       </c>
       <c r="N8" s="2">
-        <v>4.2000000000000003E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="O8" s="2">
-        <v>0.26600000000000001</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="P8" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -878,40 +884,40 @@
         <v>21</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2">
-        <v>1.4339999999999999</v>
+        <v>0.627</v>
       </c>
       <c r="G9" s="2">
-        <v>1.4730000000000001</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="H9" s="2">
-        <v>1.512</v>
+        <v>0.65139999999999998</v>
       </c>
       <c r="I9" s="2">
-        <v>0.64300000000000002</v>
+        <v>-2.1000000000000001E-2</v>
       </c>
       <c r="J9" s="2">
-        <v>2.3E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="K9" s="2">
-        <v>0.112</v>
+        <v>1.472</v>
       </c>
       <c r="L9" s="2">
-        <v>5.3999999999999999E-2</v>
+        <v>0.04</v>
       </c>
       <c r="M9" s="2">
-        <v>-0.35599999999999998</v>
+        <v>-1.0720000000000001</v>
       </c>
       <c r="N9" s="2">
-        <v>5.3999999999999999E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="O9" s="2">
-        <v>0.14899999999999999</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="P9" s="2">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -928,40 +934,40 @@
         <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2">
-        <v>1.512</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="G10" s="2">
-        <v>1.5529999999999999</v>
+        <v>0.66459999999999997</v>
       </c>
       <c r="H10" s="2">
-        <v>1.595</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="I10" s="2">
-        <v>0.83799999999999997</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="J10" s="2">
-        <v>2.3E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="K10" s="2">
-        <v>-0.32700000000000001</v>
+        <v>1.466</v>
       </c>
       <c r="L10" s="2">
-        <v>5.2999999999999999E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="M10" s="2">
-        <v>1.0999999999999999E-2</v>
+        <v>-1.107</v>
       </c>
       <c r="N10" s="2">
-        <v>5.3999999999999999E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="O10" s="2">
-        <v>3.5000000000000003E-2</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="P10" s="2">
-        <v>0.02</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -978,40 +984,40 @@
         <v>21</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F11" s="2">
-        <v>1.595</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="G11" s="2">
-        <v>1.6379999999999999</v>
+        <v>0.6895</v>
       </c>
       <c r="H11" s="2">
-        <v>1.6830000000000001</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="I11" s="2">
-        <v>0.91900000000000004</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="J11" s="2">
-        <v>0.02</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="K11" s="2">
-        <v>-0.52200000000000002</v>
+        <v>1.405</v>
       </c>
       <c r="L11" s="2">
-        <v>4.8000000000000001E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="M11" s="2">
-        <v>0.16500000000000001</v>
+        <v>-1.052</v>
       </c>
       <c r="N11" s="2">
-        <v>4.8000000000000001E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="O11" s="2">
-        <v>-1.0999999999999999E-2</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="P11" s="2">
-        <v>1.7999999999999999E-2</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1028,527 +1034,1391 @@
         <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.7026</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="I12" s="2">
+        <v>3.9E-2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1.286</v>
+      </c>
+      <c r="L12" s="2">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="M12" s="2">
+        <v>-0.95299999999999996</v>
+      </c>
+      <c r="N12" s="2">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>5990</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.75239999999999996</v>
+      </c>
+      <c r="I13" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1.208</v>
+      </c>
+      <c r="L13" s="2">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="M13" s="2">
+        <v>-0.9</v>
+      </c>
+      <c r="N13" s="2">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>5990</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.753</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="I14" s="2">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1.23</v>
+      </c>
+      <c r="L14" s="2">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="M14" s="2">
+        <v>-0.94499999999999995</v>
+      </c>
+      <c r="N14" s="2">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="P14" s="2">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>5990</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.79049999999999998</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="I15" s="2">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1.1890000000000001</v>
+      </c>
+      <c r="L15" s="2">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="M15" s="2">
+        <v>-0.91800000000000004</v>
+      </c>
+      <c r="N15" s="2">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0.254</v>
+      </c>
+      <c r="P15" s="2">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>5990</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.80369999999999997</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="I16" s="2">
+        <v>9.4E-2</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1.119</v>
+      </c>
+      <c r="L16" s="2">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="M16" s="2">
+        <v>-0.85699999999999998</v>
+      </c>
+      <c r="N16" s="2">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>5990</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.84130000000000005</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.85350000000000004</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="L17" s="2">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="M17" s="2">
+        <v>-0.751</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>5990</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.879</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.151</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="L18" s="2">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="M18" s="2">
+        <v>-0.72299999999999998</v>
+      </c>
+      <c r="N18" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0.187</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>5990</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.879</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.89159999999999995</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.154</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1.9E-2</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="L19" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="M19" s="2">
+        <v>-0.76</v>
+      </c>
+      <c r="N19" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>5990</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.90429999999999999</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1.9E-2</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="L20" s="2">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="M20" s="2">
+        <v>-0.77</v>
+      </c>
+      <c r="N20" s="2">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>5990</v>
+      </c>
+      <c r="B21" s="2">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.94240000000000002</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.9546</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="L21" s="2">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="M21" s="2">
+        <v>-0.80600000000000005</v>
+      </c>
+      <c r="N21" s="2">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>5990</v>
+      </c>
+      <c r="B22" s="2">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.96730000000000005</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="J22" s="2">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.998</v>
+      </c>
+      <c r="L22" s="2">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="M22" s="2">
+        <v>-0.84199999999999997</v>
+      </c>
+      <c r="N22" s="2">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0.248</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>5990</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.99270000000000003</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.105</v>
+      </c>
+      <c r="J23" s="2">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1.0609999999999999</v>
+      </c>
+      <c r="L23" s="2">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="M23" s="2">
+        <v>-0.90300000000000002</v>
+      </c>
+      <c r="N23" s="2">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="P23" s="2">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>5990</v>
+      </c>
+      <c r="B24" s="2">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1.006</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1.018</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1.9E-2</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="L24" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="M24" s="2">
+        <v>-0.86299999999999999</v>
+      </c>
+      <c r="N24" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0.255</v>
+      </c>
+      <c r="P24" s="2">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>5990</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="2">
-        <v>1.6830000000000001</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1.728</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1.774</v>
-      </c>
-      <c r="I12" s="2">
+      <c r="F25" s="2">
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1.0780000000000001</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="L25" s="2">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="M25" s="2">
+        <v>-0.86</v>
+      </c>
+      <c r="N25" s="2">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="P25" s="2">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>5990</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1.0780000000000001</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1.117</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="L26" s="2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="M26" s="2">
+        <v>-0.82799999999999996</v>
+      </c>
+      <c r="N26" s="2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0.249</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>5990</v>
+      </c>
+      <c r="B27" s="2">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1.117</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1.1379999999999999</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1.1579999999999999</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.156</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="M27" s="2">
+        <v>-0.89400000000000002</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="P27" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>5990</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1.1579999999999999</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1.179</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="L28" s="2">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="M28" s="2">
+        <v>-0.91</v>
+      </c>
+      <c r="N28" s="2">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="P28" s="2">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>5990</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1.222</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1.2430000000000001</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1.9E-2</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1.0189999999999999</v>
+      </c>
+      <c r="L29" s="2">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="M29" s="2">
+        <v>-1.02</v>
+      </c>
+      <c r="N29" s="2">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="P29" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>5990</v>
+      </c>
+      <c r="B30" s="2">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1.2430000000000001</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1.266</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1.288</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0.249</v>
+      </c>
+      <c r="J30" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K30" s="2">
         <v>0.878</v>
       </c>
-      <c r="J12" s="2">
+      <c r="L30" s="2">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="M30" s="2">
+        <v>-0.92200000000000004</v>
+      </c>
+      <c r="N30" s="2">
+        <v>2.3E-2</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0.308</v>
+      </c>
+      <c r="P30" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>5990</v>
+      </c>
+      <c r="B31" s="2">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1.288</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1.3120000000000001</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1.335</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0.307</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0.755</v>
+      </c>
+      <c r="L31" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="M31" s="2">
+        <v>-0.82199999999999995</v>
+      </c>
+      <c r="N31" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="P31" s="2">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>5990</v>
+      </c>
+      <c r="B32" s="2">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1.335</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1.3580000000000001</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1.383</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="L32" s="2">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="M32" s="2">
+        <v>-0.85</v>
+      </c>
+      <c r="N32" s="2">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="P32" s="2">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>5990</v>
+      </c>
+      <c r="B33" s="2">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1.383</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1.4079999999999999</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1.4339999999999999</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1.9E-2</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="L33" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="M33" s="2">
+        <v>-0.67100000000000004</v>
+      </c>
+      <c r="N33" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0.253</v>
+      </c>
+      <c r="P33" s="2">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>5990</v>
+      </c>
+      <c r="B34" s="2">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1.4339999999999999</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1.4590000000000001</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1.4850000000000001</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="L34" s="2">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="M34" s="2">
+        <v>-0.41399999999999998</v>
+      </c>
+      <c r="N34" s="2">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="P34" s="2">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>5990</v>
+      </c>
+      <c r="B35" s="2">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1.4850000000000001</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1.512</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1.5389999999999999</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="K35" s="2">
+        <v>-0.13200000000000001</v>
+      </c>
+      <c r="L35" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M35" s="2">
+        <v>-0.14699999999999999</v>
+      </c>
+      <c r="N35" s="2">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="O35" s="2">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="P35" s="2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>5990</v>
+      </c>
+      <c r="B36" s="2">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1.5389999999999999</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1.5660000000000001</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1.595</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="K36" s="2">
+        <v>-0.373</v>
+      </c>
+      <c r="L36" s="2">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="M36" s="2">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="N36" s="2">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="O36" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="P36" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>5990</v>
+      </c>
+      <c r="B37" s="2">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1.595</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1.623</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1.6519999999999999</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="K37" s="2">
+        <v>-0.51900000000000002</v>
+      </c>
+      <c r="L37" s="2">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0.159</v>
+      </c>
+      <c r="N37" s="2">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="O37" s="2">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="P37" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>5990</v>
+      </c>
+      <c r="B38" s="2">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1.6519999999999999</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1.6819999999999999</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1.712</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="K38" s="2">
+        <v>-0.52</v>
+      </c>
+      <c r="L38" s="2">
+        <v>4.7E-2</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="N38" s="2">
+        <v>4.7E-2</v>
+      </c>
+      <c r="O38" s="2">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="P38" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>5990</v>
+      </c>
+      <c r="B39" s="2">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1.712</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1.7430000000000001</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1.7729999999999999</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="K39" s="2">
+        <v>-0.434</v>
+      </c>
+      <c r="L39" s="2">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="M39" s="2">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="N39" s="2">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="O39" s="2">
         <v>1.4E-2</v>
       </c>
-      <c r="K12" s="2">
-        <v>-0.47</v>
-      </c>
-      <c r="L12" s="2">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0.114</v>
-      </c>
-      <c r="N12" s="2">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="O12" s="2">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="P12" s="2">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
+      <c r="P39" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
@@ -1604,24 +2474,6 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
